--- a/BOLERA-FACTURA/FORMATO PARA LLENADO DE FACTURAS Y BOLETAS EMITIDAS - SOLUCIONES - 5 ESQUINAS.xlsx
+++ b/BOLERA-FACTURA/FORMATO PARA LLENADO DE FACTURAS Y BOLETAS EMITIDAS - SOLUCIONES - 5 ESQUINAS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\BOLERA-FACTURA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\EXTENCION_PHYTON\BOLERA-FACTURA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5734961-C0A3-48BD-90F7-DE9072F011D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B746174-4412-4304-BE5B-05379D266603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="79">
   <si>
     <t>RUC : 10154142121</t>
   </si>
@@ -245,12 +245,30 @@
   <si>
     <t>LUIS SAUL BELTRAN JIMENEZ</t>
   </si>
+  <si>
+    <t xml:space="preserve">JOO ESPINOZA ARMANDO ERNESTO     </t>
+  </si>
+  <si>
+    <t>E002</t>
+  </si>
+  <si>
+    <t>SIMEON PILLACA ZEVALLOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOO ESPINOZA ARMANDO ERNESTO  </t>
+  </si>
+  <si>
+    <t>JUSTA FERMINA LAURA DE CHUQUISPUMA</t>
+  </si>
+  <si>
+    <t>BENEDICTA MODESTA BERROCAL GUILLEN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +301,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -317,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -337,6 +362,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,11 +677,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:H3124"/>
+  <dimension ref="A3:H3128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G148" sqref="G148"/>
+      <pane ySplit="7" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3283,7 +3309,7 @@
         <v>1248</v>
       </c>
       <c r="G139" s="3">
-        <f t="shared" ref="G139:G147" si="4">F139</f>
+        <f t="shared" ref="G139:G170" si="4">F139</f>
         <v>1248</v>
       </c>
       <c r="H139" s="1" t="s">
@@ -3392,121 +3418,501 @@
         <v>56</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="5">
-        <v>45313</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="3">
+    <row r="146" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="5"/>
+      <c r="H146"/>
+    </row>
+    <row r="147" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="5"/>
+      <c r="H147"/>
+    </row>
+    <row r="148" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="5">
+        <v>45315</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="1">
+        <v>3556</v>
+      </c>
+      <c r="F148" s="3">
+        <v>1284</v>
+      </c>
+      <c r="G148" s="3">
+        <f t="shared" si="4"/>
+        <v>1284</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="5">
+        <v>45315</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="1">
+        <v>3557</v>
+      </c>
+      <c r="G149" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="5">
-        <v>45313</v>
-      </c>
-      <c r="B147" s="1" t="s">
+      <c r="H149" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="5">
+        <v>45315</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="1">
+        <v>3558</v>
+      </c>
+      <c r="F150" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G150" s="3">
+        <f t="shared" si="4"/>
+        <v>1700</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="5">
+        <v>45315</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D151" s="1">
+        <v>3559</v>
+      </c>
+      <c r="F151" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G151" s="3">
+        <f t="shared" si="4"/>
+        <v>1700</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="5">
+        <v>45315</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C152" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G147" s="3">
+      <c r="D152" s="1">
+        <v>13384</v>
+      </c>
+      <c r="F152" s="3">
+        <v>65</v>
+      </c>
+      <c r="G152" s="3">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="5"/>
+    </row>
+    <row r="154" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="5"/>
+    </row>
+    <row r="155" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="1">
+        <v>13405</v>
+      </c>
+      <c r="F155" s="3">
+        <v>1284</v>
+      </c>
+      <c r="G155" s="3">
+        <f t="shared" si="4"/>
+        <v>1284</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" s="1">
+        <v>13406</v>
+      </c>
+      <c r="F156" s="3">
+        <v>1284</v>
+      </c>
+      <c r="G156" s="3">
+        <f t="shared" si="4"/>
+        <v>1284</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" s="1">
+        <v>13407</v>
+      </c>
+      <c r="F157" s="3">
+        <v>1594</v>
+      </c>
+      <c r="G157" s="3">
+        <f t="shared" si="4"/>
+        <v>1594</v>
+      </c>
+      <c r="H157" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="1">
+        <v>13408</v>
+      </c>
+      <c r="F158" s="3">
+        <v>1809</v>
+      </c>
+      <c r="G158" s="3">
+        <f t="shared" si="4"/>
+        <v>1809</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" s="1">
+        <v>13409</v>
+      </c>
+      <c r="F159" s="3">
+        <v>214</v>
+      </c>
+      <c r="G159" s="3">
+        <f t="shared" si="4"/>
+        <v>214</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" s="1">
+        <v>13410</v>
+      </c>
+      <c r="F160" s="3">
+        <v>1481</v>
+      </c>
+      <c r="G160" s="3">
+        <f t="shared" si="4"/>
+        <v>1481</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="1">
+        <v>3564</v>
+      </c>
+      <c r="F161" s="3">
+        <v>1830</v>
+      </c>
+      <c r="G161" s="3">
+        <f t="shared" si="4"/>
+        <v>1830</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="1">
+        <v>3565</v>
+      </c>
+      <c r="F162" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G162" s="3">
+        <f t="shared" si="4"/>
+        <v>1700</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="1">
+        <v>3566</v>
+      </c>
+      <c r="F163" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G163" s="3">
+        <f t="shared" si="4"/>
+        <v>1700</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" s="1">
+        <v>13414</v>
+      </c>
+      <c r="F164" s="3">
+        <v>1925</v>
+      </c>
+      <c r="G164" s="3">
+        <f t="shared" si="4"/>
+        <v>1925</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" s="1">
+        <v>13415</v>
+      </c>
+      <c r="F165" s="3">
+        <v>1188</v>
+      </c>
+      <c r="G165" s="3">
+        <f t="shared" si="4"/>
+        <v>1188</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" s="1">
+        <v>13416</v>
+      </c>
+      <c r="F166" s="3">
+        <v>203</v>
+      </c>
+      <c r="G166" s="3">
+        <f t="shared" si="4"/>
+        <v>203</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="5"/>
-    </row>
-    <row r="149" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="5"/>
-    </row>
-    <row r="150" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="5"/>
-    </row>
-    <row r="151" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="5"/>
-    </row>
-    <row r="152" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="5"/>
-    </row>
-    <row r="153" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="5"/>
-    </row>
-    <row r="154" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="5"/>
-    </row>
-    <row r="155" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="5"/>
-    </row>
-    <row r="156" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="5"/>
-    </row>
-    <row r="157" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="5"/>
-    </row>
-    <row r="158" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="5"/>
-    </row>
-    <row r="159" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="5"/>
-    </row>
-    <row r="160" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="5"/>
-    </row>
-    <row r="161" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="5"/>
-    </row>
-    <row r="162" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="5"/>
-    </row>
-    <row r="163" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="5"/>
-    </row>
-    <row r="164" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="5"/>
-    </row>
-    <row r="165" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="5"/>
-    </row>
-    <row r="166" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="5"/>
-    </row>
-    <row r="167" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="5"/>
-    </row>
-    <row r="168" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="5"/>
-    </row>
-    <row r="169" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="5"/>
-    </row>
-    <row r="170" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="5"/>
-    </row>
-    <row r="171" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
     </row>
-    <row r="172" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
     </row>
-    <row r="173" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
     </row>
-    <row r="174" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
     </row>
-    <row r="175" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
     </row>
-    <row r="176" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
     </row>
     <row r="177" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12352,6 +12758,18 @@
     </row>
     <row r="3124" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3124" s="5"/>
+    </row>
+    <row r="3125" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3125" s="5"/>
+    </row>
+    <row r="3126" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3126" s="5"/>
+    </row>
+    <row r="3127" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3127" s="5"/>
+    </row>
+    <row r="3128" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3128" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
